--- a/スーパーバイザーパスワード.xlsx
+++ b/スーパーバイザーパスワード.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\public_lib\museum_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\museum_app_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9625DFEE-3C2C-4FC5-81D2-0286A97FB267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B515422C-9618-4C00-A12F-24EE26129C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1530" windowWidth="21600" windowHeight="12975" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/スーパーバイザーパスワード.xlsx
+++ b/スーパーバイザーパスワード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\museum_app_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B515422C-9618-4C00-A12F-24EE26129C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255C3CA-AD91-4EE2-B56C-669670DF0792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>6C6XaGR6csWVcZrjEGc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://41mono.net/museum/sv/login.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685B5B63-8609-40A2-A6BB-54FB0EF2B863}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -459,23 +463,27 @@
     <col min="2" max="2" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{28BA1BC2-A4DF-4E4E-BB31-A73D08EC7A47}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{15C8DD7C-5F45-4468-8522-1CE25AAC2F1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/スーパーバイザーパスワード.xlsx
+++ b/スーパーバイザーパスワード.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\museum_app_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255C3CA-AD91-4EE2-B56C-669670DF0792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D9B15-91BA-409A-A8BC-80DFAEC38D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/スーパーバイザーパスワード.xlsx
+++ b/スーパーバイザーパスワード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\museum_app_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D9B15-91BA-409A-A8BC-80DFAEC38D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143664C0-580A-4DD3-A72F-BA0A997F520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
+    <workbookView xWindow="30255" yWindow="1350" windowWidth="21600" windowHeight="12975" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/スーパーバイザーパスワード.xlsx
+++ b/スーパーバイザーパスワード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\museum_app_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143664C0-580A-4DD3-A72F-BA0A997F520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7E7F1-A671-4179-BC2A-8CA72158A0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="1350" windowWidth="21600" windowHeight="12975" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
+    <workbookView xWindow="31125" yWindow="2550" windowWidth="21600" windowHeight="12975" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/スーパーバイザーパスワード.xlsx
+++ b/スーパーバイザーパスワード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\museum_app_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7E7F1-A671-4179-BC2A-8CA72158A0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDA50E4-0C7D-4E34-8CC7-B31BCC1A1B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="2550" windowWidth="21600" windowHeight="12975" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A388BD4-6418-485D-95F0-FF5292EE12AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
